--- a/DataSource/Captura.xlsx
+++ b/DataSource/Captura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\IQDocOK\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E95D8-0AAC-4E78-997E-4BAA39C27C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A0FC6B-7FDD-4502-8B9C-111F723E9A98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17508" uniqueCount="2315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16740" uniqueCount="2251">
   <si>
     <t>HC -- HONORARIO CONSULTORIO</t>
   </si>
@@ -6804,198 +6804,6 @@
   </si>
   <si>
     <t>FE676-R1228</t>
-  </si>
-  <si>
-    <t>FE676-R1229</t>
-  </si>
-  <si>
-    <t>FE676-R1230</t>
-  </si>
-  <si>
-    <t>FE676-R1231</t>
-  </si>
-  <si>
-    <t>FE676-R1232</t>
-  </si>
-  <si>
-    <t>FE676-R1233</t>
-  </si>
-  <si>
-    <t>FE676-R1234</t>
-  </si>
-  <si>
-    <t>FE676-R1235</t>
-  </si>
-  <si>
-    <t>FE676-R1236</t>
-  </si>
-  <si>
-    <t>FE676-R1237</t>
-  </si>
-  <si>
-    <t>FE676-R1238</t>
-  </si>
-  <si>
-    <t>FE676-R1239</t>
-  </si>
-  <si>
-    <t>FE676-R1240</t>
-  </si>
-  <si>
-    <t>FE676-R1241</t>
-  </si>
-  <si>
-    <t>FE676-R1242</t>
-  </si>
-  <si>
-    <t>FE676-R1243</t>
-  </si>
-  <si>
-    <t>FE676-R1244</t>
-  </si>
-  <si>
-    <t>FE676-R1245</t>
-  </si>
-  <si>
-    <t>FE676-R1246</t>
-  </si>
-  <si>
-    <t>FE676-R1247</t>
-  </si>
-  <si>
-    <t>FE676-R1248</t>
-  </si>
-  <si>
-    <t>FE676-R1249</t>
-  </si>
-  <si>
-    <t>FE676-R1250</t>
-  </si>
-  <si>
-    <t>FE676-R1251</t>
-  </si>
-  <si>
-    <t>FE676-R1252</t>
-  </si>
-  <si>
-    <t>FE676-R1253</t>
-  </si>
-  <si>
-    <t>FE676-R1254</t>
-  </si>
-  <si>
-    <t>FE676-R1255</t>
-  </si>
-  <si>
-    <t>FE676-R1256</t>
-  </si>
-  <si>
-    <t>FE676-R1257</t>
-  </si>
-  <si>
-    <t>FE676-R1258</t>
-  </si>
-  <si>
-    <t>FE676-R1259</t>
-  </si>
-  <si>
-    <t>FE676-R1260</t>
-  </si>
-  <si>
-    <t>FE676-R1261</t>
-  </si>
-  <si>
-    <t>FE676-R1262</t>
-  </si>
-  <si>
-    <t>FE676-R1263</t>
-  </si>
-  <si>
-    <t>FE676-R1264</t>
-  </si>
-  <si>
-    <t>FE676-R1265</t>
-  </si>
-  <si>
-    <t>FE676-R1266</t>
-  </si>
-  <si>
-    <t>FE676-R1267</t>
-  </si>
-  <si>
-    <t>FE676-R1268</t>
-  </si>
-  <si>
-    <t>FE676-R1269</t>
-  </si>
-  <si>
-    <t>FE676-R1270</t>
-  </si>
-  <si>
-    <t>FE676-R1271</t>
-  </si>
-  <si>
-    <t>FE676-R1272</t>
-  </si>
-  <si>
-    <t>FE676-R1273</t>
-  </si>
-  <si>
-    <t>FE676-R1274</t>
-  </si>
-  <si>
-    <t>FE676-R1275</t>
-  </si>
-  <si>
-    <t>FE676-R1276</t>
-  </si>
-  <si>
-    <t>FE676-R1277</t>
-  </si>
-  <si>
-    <t>FE676-R1278</t>
-  </si>
-  <si>
-    <t>FE676-R1279</t>
-  </si>
-  <si>
-    <t>FE676-R1280</t>
-  </si>
-  <si>
-    <t>FE676-R1281</t>
-  </si>
-  <si>
-    <t>FE676-R1282</t>
-  </si>
-  <si>
-    <t>FE676-R1283</t>
-  </si>
-  <si>
-    <t>FE676-R1284</t>
-  </si>
-  <si>
-    <t>FE676-R1285</t>
-  </si>
-  <si>
-    <t>FE676-R1286</t>
-  </si>
-  <si>
-    <t>FE676-R1287</t>
-  </si>
-  <si>
-    <t>FE676-R1288</t>
-  </si>
-  <si>
-    <t>FE676-R1289</t>
-  </si>
-  <si>
-    <t>FE676-R1290</t>
-  </si>
-  <si>
-    <t>FE676-R1291</t>
-  </si>
-  <si>
-    <t>FE676-R1292</t>
   </si>
 </sst>
 </file>
@@ -7437,10 +7245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1293"/>
+  <dimension ref="A1:M1229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1219" workbookViewId="0">
+      <selection activeCell="D1229" sqref="D1229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57844,2630 +57652,6 @@
         <v>13</v>
       </c>
       <c r="M1229" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1230" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1230" s="3" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C1230" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1230" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1230" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1230" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1230" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1230" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1230" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1230" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1230" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1230" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1230" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1231" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1231" s="3" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C1231" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1231" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1231" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1231" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1231" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1231" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1231" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1231" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1231" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1231" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1231" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1232" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1232" s="3" t="s">
-        <v>2253</v>
-      </c>
-      <c r="C1232" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1232" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1232" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1232" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1232" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1232" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1232" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1232" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1232" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1232" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1232" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1233" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1233" s="3" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C1233" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1233" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1233" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1233" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1233" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1233" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1233" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1233" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1233" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1233" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1233" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1234" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1234" s="3" t="s">
-        <v>2255</v>
-      </c>
-      <c r="C1234" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1234" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1234" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1234" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1234" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1234" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1234" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1234" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1234" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1234" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1234" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1235" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1235" s="3" t="s">
-        <v>2256</v>
-      </c>
-      <c r="C1235" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1235" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1235" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1235" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1235" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1235" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1235" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1235" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1235" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1235" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1235" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1236" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1236" s="3" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C1236" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1236" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1236" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1236" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1236" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1236" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1236" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1236" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1236" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1236" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1236" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1237" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1237" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="C1237" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1237" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1237" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1237" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1237" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1237" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1237" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1237" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1237" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1237" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1237" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1238" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1238" s="3" t="s">
-        <v>2259</v>
-      </c>
-      <c r="C1238" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1238" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1238" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1238" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1238" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1238" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1238" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1238" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1238" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1238" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1238" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1239" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1239" s="3" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C1239" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1239" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1239" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1239" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1239" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1239" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1239" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1239" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1239" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1239" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1239" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1240" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1240" s="3" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C1240" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1240" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1240" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1240" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1240" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1240" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1240" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1240" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1240" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1240" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1240" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1241" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1241" s="3" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C1241" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1241" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1241" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1241" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1241" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1241" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1241" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1241" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1241" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1241" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1241" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1242" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1242" s="3" t="s">
-        <v>2263</v>
-      </c>
-      <c r="C1242" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1242" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1242" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1242" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1242" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1242" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1242" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1242" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1242" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1242" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1242" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1243" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1243" s="3" t="s">
-        <v>2264</v>
-      </c>
-      <c r="C1243" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1243" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1243" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1243" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1243" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1243" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1243" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1243" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1243" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1243" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1243" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1244" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1244" s="3" t="s">
-        <v>2265</v>
-      </c>
-      <c r="C1244" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1244" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1244" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1244" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1244" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1244" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1244" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1244" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1244" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1244" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1244" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1245" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1245" s="3" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C1245" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1245" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1245" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1245" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1245" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1245" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1245" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1245" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1245" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1245" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1245" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1246" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1246" s="3" t="s">
-        <v>2267</v>
-      </c>
-      <c r="C1246" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1246" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1246" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1246" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1246" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1246" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1246" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1246" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1246" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1246" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1246" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1247" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1247" s="3" t="s">
-        <v>2268</v>
-      </c>
-      <c r="C1247" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1247" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1247" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1247" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1247" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1247" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1247" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1247" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1247" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1247" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1247" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1248" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1248" s="3" t="s">
-        <v>2269</v>
-      </c>
-      <c r="C1248" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1248" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1248" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1248" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1248" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1248" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1248" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1248" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1248" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1248" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1248" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1249" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1249" s="3" t="s">
-        <v>2270</v>
-      </c>
-      <c r="C1249" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1249" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1249" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1249" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1249" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1249" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1249" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1249" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1249" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1249" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1249" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1250" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1250" s="3" t="s">
-        <v>2271</v>
-      </c>
-      <c r="C1250" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1250" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1250" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1250" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1250" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1250" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1250" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1250" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1250" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1250" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1250" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1251" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1251" s="3" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C1251" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1251" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1251" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1251" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1251" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1251" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1251" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1251" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1251" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1251" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1251" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1252" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1252" s="3" t="s">
-        <v>2273</v>
-      </c>
-      <c r="C1252" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1252" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1252" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1252" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1252" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1252" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1252" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1252" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1252" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1252" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1252" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1253" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1253" s="3" t="s">
-        <v>2274</v>
-      </c>
-      <c r="C1253" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1253" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1253" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1253" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1253" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1253" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1253" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1253" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1253" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1253" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1253" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1254" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1254" s="3" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C1254" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1254" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1254" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1254" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1254" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1254" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1254" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1254" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1254" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1254" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1254" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1255" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1255" s="3" t="s">
-        <v>2276</v>
-      </c>
-      <c r="C1255" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1255" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1255" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1255" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1255" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1255" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1255" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1255" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1255" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1255" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1255" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1256" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1256" s="3" t="s">
-        <v>2277</v>
-      </c>
-      <c r="C1256" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1256" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1256" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1256" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1256" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1256" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1256" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1256" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1256" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1256" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1256" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1257" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1257" s="3" t="s">
-        <v>2278</v>
-      </c>
-      <c r="C1257" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1257" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1257" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1257" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1257" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1257" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1257" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1257" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1257" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1257" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1257" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1258" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1258" s="3" t="s">
-        <v>2279</v>
-      </c>
-      <c r="C1258" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1258" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1258" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1258" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1258" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1258" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1258" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1258" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1258" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1258" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1258" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1259" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1259" s="3" t="s">
-        <v>2280</v>
-      </c>
-      <c r="C1259" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1259" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1259" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1259" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1259" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1259" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1259" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1259" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1259" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1259" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1259" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1260" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1260" s="3" t="s">
-        <v>2281</v>
-      </c>
-      <c r="C1260" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1260" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1260" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1260" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1260" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1260" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1260" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1260" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1260" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1260" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1260" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1261" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1261" s="3" t="s">
-        <v>2282</v>
-      </c>
-      <c r="C1261" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1261" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1261" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1261" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1261" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1261" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1261" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1261" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1261" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1261" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1261" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1262" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1262" s="3" t="s">
-        <v>2283</v>
-      </c>
-      <c r="C1262" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1262" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1262" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1262" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1262" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1262" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1262" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1262" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1262" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1262" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1262" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1263" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1263" s="3" t="s">
-        <v>2284</v>
-      </c>
-      <c r="C1263" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1263" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1263" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1263" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1263" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1263" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1263" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1263" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1263" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1263" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1263" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1264" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1264" s="3" t="s">
-        <v>2285</v>
-      </c>
-      <c r="C1264" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1264" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1264" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1264" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1264" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1264" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1264" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1264" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1264" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1264" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1264" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1265" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1265" s="3" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C1265" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1265" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1265" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1265" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1265" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1265" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1265" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1265" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1265" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1265" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1265" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1266" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1266" s="3" t="s">
-        <v>2287</v>
-      </c>
-      <c r="C1266" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1266" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1266" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1266" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1266" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1266" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1266" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1266" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1266" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1266" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1266" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1267" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1267" s="3" t="s">
-        <v>2288</v>
-      </c>
-      <c r="C1267" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1267" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1267" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1267" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1267" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1267" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1267" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1267" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1267" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1267" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1267" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1268" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1268" s="3" t="s">
-        <v>2289</v>
-      </c>
-      <c r="C1268" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1268" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1268" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1268" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1268" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1268" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1268" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1268" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1268" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1268" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1268" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1269" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1269" s="3" t="s">
-        <v>2290</v>
-      </c>
-      <c r="C1269" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1269" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1269" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1269" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1269" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1269" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1269" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1269" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1269" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1269" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1269" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1270" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1270" s="3" t="s">
-        <v>2291</v>
-      </c>
-      <c r="C1270" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1270" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1270" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1270" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1270" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1270" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1270" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1270" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1270" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1270" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1270" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1271" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1271" s="3" t="s">
-        <v>2292</v>
-      </c>
-      <c r="C1271" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1271" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1271" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1271" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1271" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1271" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1271" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1271" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1271" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1271" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1271" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1272" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1272" s="3" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C1272" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1272" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1272" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1272" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1272" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1272" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1272" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1272" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1272" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1272" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1272" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1273" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1273" s="3" t="s">
-        <v>2294</v>
-      </c>
-      <c r="C1273" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1273" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1273" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1273" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1273" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1273" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1273" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1273" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1273" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1273" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1273" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1274" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1274" s="3" t="s">
-        <v>2295</v>
-      </c>
-      <c r="C1274" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1274" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1274" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1274" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1274" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1274" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1274" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1274" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1274" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1274" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1274" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1275" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1275" s="3" t="s">
-        <v>2296</v>
-      </c>
-      <c r="C1275" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1275" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1275" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1275" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1275" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1275" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1275" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1275" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1275" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1275" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1275" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1276" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1276" s="3" t="s">
-        <v>2297</v>
-      </c>
-      <c r="C1276" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1276" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1276" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1276" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1276" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1276" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1276" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1276" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1276" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1276" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1276" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1277" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1277" s="3" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C1277" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1277" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1277" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1277" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1277" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1277" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1277" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1277" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1277" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1277" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1277" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1278" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1278" s="3" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C1278" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1278" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1278" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1278" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1278" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1278" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1278" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1278" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1278" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1278" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1278" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1279" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1279" s="3" t="s">
-        <v>2300</v>
-      </c>
-      <c r="C1279" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1279" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1279" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1279" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1279" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1279" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1279" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1279" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1279" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1279" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1279" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1280" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1280" s="3" t="s">
-        <v>2301</v>
-      </c>
-      <c r="C1280" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1280" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1280" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1280" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1280" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1280" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1280" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1280" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1280" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1280" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1280" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1281" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1281" s="3" t="s">
-        <v>2302</v>
-      </c>
-      <c r="C1281" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1281" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1281" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1281" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1281" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1281" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1281" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1281" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1281" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1281" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1281" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1282" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1282" s="3" t="s">
-        <v>2303</v>
-      </c>
-      <c r="C1282" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1282" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1282" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1282" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1282" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1282" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1282" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1282" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1282" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1282" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1282" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1283" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1283" s="3" t="s">
-        <v>2304</v>
-      </c>
-      <c r="C1283" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1283" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1283" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1283" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1283" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1283" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1283" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1283" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1283" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1283" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1283" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1284" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1284" s="3" t="s">
-        <v>2305</v>
-      </c>
-      <c r="C1284" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1284" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1284" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1284" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1284" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1284" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1284" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1284" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1284" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1284" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1284" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1285" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1285" s="3" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C1285" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1285" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1285" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1285" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1285" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1285" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1285" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1285" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1285" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1285" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1285" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1286" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1286" s="3" t="s">
-        <v>2307</v>
-      </c>
-      <c r="C1286" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1286" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1286" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1286" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1286" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1286" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1286" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1286" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1286" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1286" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1286" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1287" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1287" s="3" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C1287" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1287" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1287" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1287" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1287" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1287" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1287" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1287" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1287" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1287" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1287" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1288" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1288" s="3" t="s">
-        <v>2309</v>
-      </c>
-      <c r="C1288" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1288" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1288" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1288" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1288" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1288" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1288" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1288" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1288" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1288" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1288" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1289" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1289" s="3" t="s">
-        <v>2310</v>
-      </c>
-      <c r="C1289" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1289" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1289" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1289" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1289" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1289" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1289" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1289" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1289" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1289" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1289" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1290" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1290" s="3" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C1290" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1290" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1290" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1290" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1290" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1290" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1290" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1290" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1290" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1290" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1290" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1291" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1291" s="3" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C1291" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1291" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1291" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1291" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1291" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1291" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1291" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1291" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1291" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1291" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1291" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1292" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1292" s="3" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C1292" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1292" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1292" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1292" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1292" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1292" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1292" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1292" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1292" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1292" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1292" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1293" s="4">
-        <v>900371613</v>
-      </c>
-      <c r="B1293" s="3" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C1293" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1293" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1293" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1293" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1293" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1293" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1293" s="7" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J1293" t="s">
-        <v>1026</v>
-      </c>
-      <c r="K1293" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1293" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1293" s="8" t="s">
         <v>26</v>
       </c>
     </row>
